--- a/Housing Databases/Extra Databases/all_city_sample_for_Chris.xlsx
+++ b/Housing Databases/Extra Databases/all_city_sample_for_Chris.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kailyn Hogan\OneDrive - Iowa State University\Documents\GitHub\Housing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7eead86a347b36d/Desktop/Summer DPSG/DSPG2023/Housing/HousingDatabase/Housing Databases/Extra Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C2993-E021-4884-BA1D-3FC1B8076147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{425C2993-E021-4884-BA1D-3FC1B8076147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3ED58F-C5CC-466A-905C-F69C356D975F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="326">
   <si>
     <t>Parcel ID</t>
   </si>
@@ -1025,16 +1025,25 @@
   </si>
   <si>
     <t>https://maps.googleapis.com/maps/api/streetview?size=800x800&amp;location=502+BUTLER+AVE,GRUNDY+CENTER+IOWA</t>
+  </si>
+  <si>
+    <t>Full_Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1349,24 +1358,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.62890625" customWidth="1"/>
-    <col min="4" max="5" width="10.3125" customWidth="1"/>
-    <col min="6" max="6" width="103.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="5" width="10.31640625" customWidth="1"/>
+    <col min="6" max="6" width="103.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.40625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1391,50 +1401,53 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>90</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>91</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>92</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>627476010</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>627478013</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>627478005</v>
       </c>
@@ -1515,7 +1528,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>627477011</v>
       </c>
@@ -1542,7 +1555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>627478004</v>
       </c>
@@ -1569,7 +1582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>627477010</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>627478009</v>
       </c>
@@ -1623,7 +1636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>627478003</v>
       </c>
@@ -1650,7 +1663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>627478006</v>
       </c>
@@ -1677,7 +1690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>627478014</v>
       </c>
@@ -1704,7 +1717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>627477013</v>
       </c>
@@ -1731,7 +1744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>627477012</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>627478012</v>
       </c>
@@ -1785,7 +1798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>627477009</v>
       </c>
@@ -1812,7 +1825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>627478008</v>
       </c>
@@ -1839,7 +1852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>627478011</v>
       </c>
@@ -1866,7 +1879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>627477008</v>
       </c>
@@ -1893,7 +1906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>627478001</v>
       </c>
@@ -1920,7 +1933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>627478007</v>
       </c>
@@ -1947,7 +1960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>627478010</v>
       </c>
@@ -1974,7 +1987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>627477007</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>627428003</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>627476007</v>
       </c>
@@ -2055,7 +2068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>627477006</v>
       </c>
@@ -2082,7 +2095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>627477002</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>1910725191</v>
       </c>
@@ -2136,7 +2149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>1910725163</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>19111217644</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>19107251147</v>
       </c>
@@ -2217,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>19111217695</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>1910712691</v>
       </c>
@@ -2271,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>1910725153</v>
       </c>
@@ -2298,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>1910725148</v>
       </c>
@@ -2325,7 +2338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>19111217649</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>1910725131</v>
       </c>
@@ -2379,7 +2392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>19107126103</v>
       </c>
@@ -2406,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>1910725111</v>
       </c>
@@ -2433,7 +2446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>1910725180</v>
       </c>
@@ -2460,7 +2473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>1910712686</v>
       </c>
@@ -2487,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>19107126115</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>191072216</v>
       </c>
@@ -2541,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>19111217667</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>19111217655</v>
       </c>
@@ -2595,7 +2608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>1910712625</v>
       </c>
@@ -2622,7 +2635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>1910725121</v>
       </c>
@@ -2649,7 +2662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>19107251148</v>
       </c>
@@ -2676,7 +2689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>191072266</v>
       </c>
@@ -2703,7 +2716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>1910722610</v>
       </c>
@@ -2730,7 +2743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>191072268</v>
       </c>
@@ -2757,7 +2770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>1910722611</v>
       </c>
@@ -2784,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>1331228310</v>
       </c>
@@ -2811,7 +2824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>1331210210</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>1331228210</v>
       </c>
@@ -2865,7 +2878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>1331220100</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>1331220080</v>
       </c>
@@ -2919,7 +2932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A57">
         <v>1331245140</v>
       </c>
@@ -2946,7 +2959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A58">
         <v>1331245160</v>
       </c>
@@ -2973,7 +2986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A59">
         <v>1331228190</v>
       </c>
@@ -3000,7 +3013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A60">
         <v>1331220140</v>
       </c>
@@ -3027,7 +3040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A61">
         <v>1331212230</v>
       </c>
@@ -3054,7 +3067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>1331228260</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>1331228270</v>
       </c>
@@ -3108,7 +3121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>1331228320</v>
       </c>
@@ -3135,7 +3148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>1331220110</v>
       </c>
@@ -3162,7 +3175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>1331245135</v>
       </c>
@@ -3189,7 +3202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A67">
         <v>1331220130</v>
       </c>
@@ -3216,7 +3229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A68">
         <v>1331228200</v>
       </c>
@@ -3243,7 +3256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A69">
         <v>1331228335</v>
       </c>
@@ -3270,7 +3283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A70">
         <v>1331245180</v>
       </c>
@@ -3297,7 +3310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A71">
         <v>1331245280</v>
       </c>
@@ -3324,7 +3337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>1331210300</v>
       </c>
@@ -3351,7 +3364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>1331227230</v>
       </c>
@@ -3378,7 +3391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>1331205030</v>
       </c>
@@ -3405,7 +3418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>1331205050</v>
       </c>
@@ -3432,7 +3445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>1331290170</v>
       </c>
@@ -3459,7 +3472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A77">
         <v>871607306010</v>
       </c>
@@ -3486,7 +3499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A78">
         <v>871607306011</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A79">
         <v>871607354007</v>
       </c>
@@ -3540,7 +3553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A80">
         <v>871712431008</v>
       </c>
@@ -3567,7 +3580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A81">
         <v>871607351002</v>
       </c>
@@ -3594,7 +3607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>871712478007</v>
       </c>
@@ -3621,7 +3634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>871607306007</v>
       </c>
@@ -3648,7 +3661,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>871607306008</v>
       </c>
@@ -3675,7 +3688,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>871607328006</v>
       </c>
@@ -3702,7 +3715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>871712483010</v>
       </c>
@@ -3729,7 +3742,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A87">
         <v>871607306005</v>
       </c>
@@ -3756,7 +3769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A88">
         <v>871607305003</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A89">
         <v>871712483006</v>
       </c>
@@ -3810,7 +3823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A90">
         <v>871712428020</v>
       </c>
@@ -3837,7 +3850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A91">
         <v>871712428017</v>
       </c>
@@ -3864,7 +3877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>871607328001</v>
       </c>
@@ -3891,7 +3904,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>871607302001</v>
       </c>
@@ -3918,7 +3931,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>871607354006</v>
       </c>
@@ -3945,7 +3958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>871607354005</v>
       </c>
@@ -3972,7 +3985,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>871607305005</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A97">
         <v>871607354019</v>
       </c>
@@ -4026,7 +4039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A98">
         <v>871607314003</v>
       </c>
@@ -4053,7 +4066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A99">
         <v>871607352009</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A100">
         <v>871607301008</v>
       </c>
@@ -4107,7 +4120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A101">
         <v>871712483005</v>
       </c>
@@ -4136,6 +4149,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
